--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,90 +49,90 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>dumb</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
@@ -151,52 +151,49 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>brilliant</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>essential</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>top</t>
   </si>
   <si>
     <t>worth</t>
@@ -205,45 +202,42 @@
     <t>first</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>many</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>real</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
@@ -253,22 +247,19 @@
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>…</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -629,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -822,13 +813,13 @@
         <v>45</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.92</v>
       </c>
       <c r="L5">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M5">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,13 +863,13 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8939393939393939</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K8">
-        <v>0.7543859649122807</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K9">
-        <v>0.7</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8461538461538461</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>50</v>
@@ -1222,13 +1213,13 @@
         <v>53</v>
       </c>
       <c r="K13">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K14">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,13 +1313,13 @@
         <v>55</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6923076923076923</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1398,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K17">
-        <v>0.4736842105263158</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K18">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1498,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K19">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L19">
         <v>6</v>
@@ -1540,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1539,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6470588235294118</v>
+        <v>0.65</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K20">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,7 +1589,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1616,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K21">
-        <v>0.3333333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,13 +1639,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1666,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K22">
-        <v>0.3333333333333333</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,13 +1689,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5882352941176471</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1716,19 +1707,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K23">
-        <v>0.3157894736842105</v>
+        <v>0.2231329690346084</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>853</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1748,13 +1739,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5652173913043478</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1766,19 +1757,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K24">
-        <v>0.2916666666666667</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1790,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,13 +1789,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5531914893617021</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1816,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K25">
-        <v>0.2439024390243902</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1840,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1848,13 +1839,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5434782608695652</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="C26">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1866,19 +1857,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K26">
-        <v>0.2307692307692308</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1890,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1898,13 +1889,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5142857142857142</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1916,19 +1907,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K27">
-        <v>0.2276867030965392</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L27">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="M27">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1940,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>848</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1948,13 +1939,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1966,19 +1957,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K28">
-        <v>0.2131147540983606</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1990,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,13 +1989,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2016,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K29">
-        <v>0.2033898305084746</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L29">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2040,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2048,37 +2039,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>12</v>
-      </c>
-      <c r="D30">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K30">
-        <v>0.1666666666666667</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2090,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2098,13 +2089,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4358974358974359</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2116,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K31">
-        <v>0.1267605633802817</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="L31">
         <v>9</v>
@@ -2140,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2148,13 +2139,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4210526315789473</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2166,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K32">
-        <v>0.1111111111111111</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L32">
         <v>6</v>
@@ -2190,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2198,13 +2189,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.375</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2216,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K33">
-        <v>0.1052631578947368</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2240,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2248,13 +2239,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2857142857142857</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2266,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K34">
-        <v>0.09230769230769231</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="L34">
         <v>6</v>
@@ -2290,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2298,13 +2289,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.25</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2316,13 +2307,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K35">
-        <v>0.0821917808219178</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="L35">
         <v>6</v>
@@ -2340,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>67</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2348,13 +2339,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1666666666666667</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2366,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K36">
-        <v>0.07058823529411765</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2390,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>79</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2398,37 +2389,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.04697986577181208</v>
+        <v>0.03691275167785235</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F37">
-        <v>0.9299999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K37">
-        <v>0.04379562043795621</v>
+        <v>0.02639296187683285</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2440,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>131</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2448,13 +2439,13 @@
         <v>78</v>
       </c>
       <c r="K38">
-        <v>0.03614457831325301</v>
+        <v>0.02435064935064935</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2466,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>640</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2474,13 +2465,13 @@
         <v>79</v>
       </c>
       <c r="K39">
-        <v>0.03180212014134275</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="L39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2492,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>274</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2500,13 +2491,13 @@
         <v>80</v>
       </c>
       <c r="K40">
-        <v>0.02407407407407407</v>
+        <v>0.01670506912442396</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2518,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>527</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2526,13 +2517,13 @@
         <v>81</v>
       </c>
       <c r="K41">
-        <v>0.02052785923753666</v>
+        <v>0.01664532650448143</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2544,85 +2535,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42">
-        <v>0.01792573623559539</v>
-      </c>
-      <c r="L42">
-        <v>14</v>
-      </c>
-      <c r="M42">
-        <v>14</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>0.01461038961038961</v>
-      </c>
-      <c r="L43">
-        <v>9</v>
-      </c>
-      <c r="M43">
-        <v>9</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44">
-        <v>0.01152073732718894</v>
-      </c>
-      <c r="L44">
-        <v>20</v>
-      </c>
-      <c r="M44">
-        <v>20</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>1716</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
